--- a/profiling/Confronto prestazioni.xlsx
+++ b/profiling/Confronto prestazioni.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAF8CA-E327-431E-99B2-2FC7749218CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{94BAF8CA-E327-431E-99B2-2FC7749218CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{D666BBD4-3C90-4D37-A165-F0C9877C0206}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
   <si>
     <t>Versione 1</t>
   </si>
@@ -131,15 +131,34 @@
   <si>
     <t>blocco-o</t>
   </si>
+  <si>
+    <t>RIGHE</t>
+  </si>
+  <si>
+    <t>BLOCCO</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>righe</t>
+  </si>
+  <si>
+    <t>celle</t>
+  </si>
+  <si>
+    <t>blocco</t>
+  </si>
+  <si>
+    <t>GPU - blocco</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0000_ ;\-0.0000\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -186,14 +205,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -366,7 +383,7 @@
             <c:numRef>
               <c:f>Foglio1!$B$63:$B$70</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>17.5593</c:v>
@@ -473,7 +490,7 @@
             <c:numRef>
               <c:f>Foglio1!$C$63:$C$70</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.9619999999999997</c:v>
@@ -583,7 +600,7 @@
             <c:numRef>
               <c:f>Foglio1!$D$63:$D$70</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.4560000000000004</c:v>
@@ -693,7 +710,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$63:$E$70</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.7749999999999999</c:v>
@@ -814,7 +831,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1083,7 +1100,7 @@
             <c:numRef>
               <c:f>Foglio1!$B$79:$B$85</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.5387545344619107</c:v>
@@ -1187,7 +1204,7 @@
             <c:numRef>
               <c:f>Foglio1!$C$79:$C$85</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.9405969479353677</c:v>
@@ -1291,7 +1308,7 @@
             <c:numRef>
               <c:f>Foglio1!$D$79:$D$85</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.6514701986754972</c:v>
@@ -1409,7 +1426,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1441,6 +1458,1202 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="656973440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$112:$A$119</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$112:$B$119</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.5593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.365499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>303.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2086.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2292.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4083.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-978A-495C-8533-BE04139C926F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>celle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$112:$A$119</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$112:$C$119</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.4560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.761000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>363.65199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>406.19099999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>710.69299999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>786.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-978A-495C-8533-BE04139C926F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>righe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$112:$A$119</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$112:$D$119</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.108000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345.56200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.17899999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-978A-495C-8533-BE04139C926F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blocco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$112:$A$119</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$112:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>202.54599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-978A-495C-8533-BE04139C926F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="564052648"/>
+        <c:axId val="564053960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="564052648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564053960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564053960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564052648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Differenza</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> tempi di esecuzione CPU-GPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$146:$A$153</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$146:$B$153</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.5593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.365499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>303.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2086.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2292.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4083.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FAD-4541-A6A5-7F7B93AB11CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU - blocco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$146:$A$153</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$146:$C$153</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>202.54599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FAD-4541-A6A5-7F7B93AB11CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="696289760"/>
+        <c:axId val="696289104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="696289760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696289104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696289104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696289760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1607,6 +2820,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2111,6 +3404,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2682,6 +4981,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF8EBB7-9572-4D6A-8EE4-A5BF19805D1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C8551D-7A18-4145-AFE4-C0C854CB73A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2953,965 +5324,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="J161" sqref="J161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>6.6906999999999994E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.39800000000000002</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.42199999999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f>B2/C2</f>
         <v>0.168108040201005</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>B2/D2</f>
         <v>0.1585473933649289</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>8.3939E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.28399999999999997</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E16" si="0">B3/C3</f>
         <v>0.29555985915492961</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F16" si="1">B3/D3</f>
         <v>0.25827384615384613</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.29321999999999998</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.39600000000000002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.45400000000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>0.74045454545454537</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
         <v>0.64585903083700436</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4.9819000000000002E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.27900000000000003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>0.1785627240143369</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>0.16551162790697677</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.64874299999999996</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.49</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.58299999999999996</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>1.323965306122449</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>1.1127667238421954</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.34740300000000002</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.39500000000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>0.87950126582278476</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>0.72526722338204597</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>6.0758000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.907</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.8959999999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>3.1860513896171998</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>3.2045358649789031</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>3.1732</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1.3759999999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>1.468</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>2.3061046511627907</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>2.1615803814713899</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>52.365499999999997</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>12.473000000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>11.436</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>4.1983083460274191</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>4.5790048968170689</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>17.5593</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>4.9619999999999997</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>4.8310000000000004</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>3.5387545344619107</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>3.6347133098737321</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>169.84</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>35.335000000000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>31.605</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>4.8065657280316962</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>5.3738332542319256</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>303.58</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>66.7</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>50.404000000000003</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>4.5514242878560713</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
         <v>6.022934687723196</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>2086.73</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>431.33</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>290.44900000000001</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>4.8378967379964299</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>7.1844971062045317</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>2292.75</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>479.54</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>327.10300000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>4.7811444300788253</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>7.0092600801582376</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>4083.51</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>842.13</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>536.72500000000002</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>4.8490256848705071</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>7.6081978666915084</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>930.20600000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>6.6906999999999994E-2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.42199999999999999</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>1.034</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <f>B22/D22</f>
         <v>6.4706963249516428E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>8.3939E-2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <f t="shared" ref="E23:E37" si="2">B23/D23</f>
         <v>0.28648122866894199</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.29321999999999998</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>0.45400000000000001</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.432</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <f t="shared" si="2"/>
         <v>0.67874999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>4.9819000000000002E-2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.30099999999999999</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <f t="shared" si="2"/>
         <v>0.17985198555956677</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.64874299999999996</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>0.58299999999999996</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <f t="shared" si="2"/>
         <v>1.2036048237476806</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.34740300000000002</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.438</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <f t="shared" si="2"/>
         <v>0.79315753424657542</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>6.0758000000000001</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1.8959999999999999</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>1.7929999999999999</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <f t="shared" si="2"/>
         <v>3.388622420524261</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>3.1732</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>1.468</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>1.3520000000000001</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <f t="shared" si="2"/>
         <v>2.3470414201183432</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>52.365499999999997</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>11.436</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>10.568</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <f t="shared" si="2"/>
         <v>4.9551003028009086</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>17.5593</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>4.8310000000000004</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>4.4560000000000004</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <f t="shared" si="2"/>
         <v>3.9405969479353677</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>169.84</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>31.605</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>29.529</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <f t="shared" si="2"/>
         <v>5.7516339869281046</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>303.58</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>50.404000000000003</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>46.468000000000004</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <f t="shared" si="2"/>
         <v>6.5330980459671162</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>2086.73</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>290.44900000000001</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>270.30500000000001</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <f t="shared" si="2"/>
         <v>7.7199089916945667</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>2292.75</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>327.10300000000001</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>302.471</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <f t="shared" si="2"/>
         <v>7.5800655269430788</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>4083.51</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>536.72500000000002</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>503.774</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <f t="shared" si="2"/>
         <v>8.105837141257787</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>610.55600000000004</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>572.81399999999996</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>6.6906999999999994E-2</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>0.39800000000000002</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>1.034</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>1.0580000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>8.3939E-2</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>0.28399999999999997</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>0.29321999999999998</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>0.39600000000000002</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>0.432</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>4.9819000000000002E-2</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>0.27900000000000003</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>3.05</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>0.64874299999999996</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>0.49</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>0.34740300000000002</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>0.39500000000000002</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>0.438</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>6.0758000000000001</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>1.907</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>1.7929999999999999</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>1.724</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>3.1732</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>1.3759999999999999</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>1.3520000000000001</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>1.323</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>52.365499999999997</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>12.473000000000001</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>10.568</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>8.2759999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>17.5593</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>4.9619999999999997</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>4.4560000000000004</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>3.7749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>169.84</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>35.335000000000001</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>29.529</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>21.007999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>303.58</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>66.7</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>46.468000000000004</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="3">
         <v>34.087000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>2086.73</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>431.33</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>270.30500000000001</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>185.351</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>2292.75</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>479.54</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>302.471</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>209.85900000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>4083.51</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>842.13</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>503.774</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>341.274</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>930.20600000000002</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>572.81399999999996</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>387.42500000000001</v>
       </c>
     </row>
@@ -3919,365 +6291,889 @@
       <c r="E60" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>17.5593</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>4.9619999999999997</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>4.4560000000000004</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>3.7749999999999999</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>2.028</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>52.365499999999997</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>12.473000000000001</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>10.568</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>8.2759999999999998</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>4.3079999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>169.84</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>35.335000000000001</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>29.529</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>21.007999999999999</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>10.448</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>303.58</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>66.7</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>46.468000000000004</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="3">
         <v>34.087000000000003</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>18.902000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>2086.73</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>431.33</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>270.30500000000001</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>185.351</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>124.38</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>2292.75</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>479.54</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>302.471</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>209.85900000000001</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>135.93199999999999</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>4083.51</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>842.13</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>503.774</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>341.274</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>248.55699999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>930.20600000000002</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>572.81399999999996</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>387.42500000000001</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="1">
         <v>268.56799999999998</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <f>B63/C63</f>
         <v>3.5387545344619107</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <f>B63/D63</f>
         <v>3.9405969479353677</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <f>B63/E63</f>
         <v>4.6514701986754972</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <f t="shared" ref="E79:E80" si="3">B63/F63</f>
         <v>8.6584319526627223</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <f t="shared" ref="B80:B86" si="4">B64/C64</f>
         <v>4.1983083460274191</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <f t="shared" ref="C80:C86" si="5">B64/D64</f>
         <v>4.9551003028009086</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <f t="shared" ref="D80:D86" si="6">B64/E64</f>
         <v>6.3273924601256644</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <f t="shared" si="3"/>
         <v>12.155408542246983</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <f t="shared" si="4"/>
         <v>4.8065657280316962</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <f t="shared" si="5"/>
         <v>5.7516339869281046</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <f t="shared" si="6"/>
         <v>8.0845392231530848</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <f>B65/F65</f>
         <v>16.255742725880552</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <f t="shared" si="4"/>
         <v>4.5514242878560713</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <f t="shared" si="5"/>
         <v>6.5330980459671162</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <f t="shared" si="6"/>
         <v>8.9060345586293881</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <f t="shared" ref="E82:E86" si="7">B66/F66</f>
         <v>16.060734313829222</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <f t="shared" si="4"/>
         <v>4.8378967379964299</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <f t="shared" si="5"/>
         <v>7.7199089916945667</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <f t="shared" si="6"/>
         <v>11.258261352784716</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <f t="shared" si="7"/>
         <v>16.777054188776333</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <f t="shared" si="4"/>
         <v>4.7811444300788253</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <f t="shared" si="5"/>
         <v>7.5800655269430788</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <f t="shared" si="6"/>
         <v>10.92519262933684</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <f t="shared" si="7"/>
         <v>16.866889327016452</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <f t="shared" si="4"/>
         <v>4.8490256848705071</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <f t="shared" si="5"/>
         <v>8.105837141257787</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <f t="shared" si="6"/>
         <v>11.965488141493346</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <f t="shared" si="7"/>
         <v>16.428867422764196</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6.6906999999999994E-2</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1">
+        <v>8.3939E-2</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.29321999999999998</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4.9819000000000002E-2</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.64874299999999996</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.34740300000000002</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3.1732</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="2">
+        <v>6.0758000000000001</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1.635</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1">
+        <v>17.5593</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4.4560000000000004</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1.901</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>52.365499999999997</v>
+      </c>
+      <c r="C113" s="1">
+        <v>11.464</v>
+      </c>
+      <c r="D113" s="1">
+        <v>6.4480000000000004</v>
+      </c>
+      <c r="E113" s="1">
+        <v>3.7570000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1">
+        <v>169.84</v>
+      </c>
+      <c r="C114" s="1">
+        <v>32.279000000000003</v>
+      </c>
+      <c r="D114" s="1">
+        <v>17.108000000000001</v>
+      </c>
+      <c r="E114" s="1">
+        <v>8.5549999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="1">
+        <v>303.58</v>
+      </c>
+      <c r="C115" s="1">
+        <v>58.761000000000003</v>
+      </c>
+      <c r="D115" s="1">
+        <v>27.411999999999999</v>
+      </c>
+      <c r="E115" s="1">
+        <v>14.725</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2086.73</v>
+      </c>
+      <c r="C116" s="1">
+        <v>363.65199999999999</v>
+      </c>
+      <c r="D116" s="1">
+        <v>181.57</v>
+      </c>
+      <c r="E116" s="1">
+        <v>93.475999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2292.75</v>
+      </c>
+      <c r="C117" s="1">
+        <v>406.19099999999997</v>
+      </c>
+      <c r="D117" s="1">
+        <v>195.86</v>
+      </c>
+      <c r="E117" s="1">
+        <v>103.282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4083.51</v>
+      </c>
+      <c r="C118" s="1">
+        <v>710.69299999999998</v>
+      </c>
+      <c r="D118" s="1">
+        <v>345.56200000000001</v>
+      </c>
+      <c r="E118" s="1">
+        <v>183.08500000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="1">
+        <v>4520</v>
+      </c>
+      <c r="C119" s="1">
+        <v>786.59</v>
+      </c>
+      <c r="D119" s="1">
+        <v>384.17899999999997</v>
+      </c>
+      <c r="E119" s="1">
+        <v>202.54599999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>0.437</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1.4470000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1.8029999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>4.827</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4.2089999999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>11.66</v>
+      </c>
+      <c r="B135" s="1">
+        <v>9.7829999999999995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>30.844999999999999</v>
+      </c>
+      <c r="B136" s="1">
+        <v>25.29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>48.317999999999998</v>
+      </c>
+      <c r="B137" s="1">
+        <v>42.579000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>268.52699999999999</v>
+      </c>
+      <c r="B138" s="1">
+        <v>233.95500000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>299.15600000000001</v>
+      </c>
+      <c r="B139" s="1">
+        <v>264.38299999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>483.54899999999998</v>
+      </c>
+      <c r="B140" s="1">
+        <v>439.55500000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>548.02300000000002</v>
+      </c>
+      <c r="B141" s="1">
+        <v>492.05399999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="1">
+        <v>17.5593</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1.901</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="1">
+        <v>52.365499999999997</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3.7570000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1">
+        <v>169.84</v>
+      </c>
+      <c r="C148" s="1">
+        <v>8.5549999999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="1">
+        <v>303.58</v>
+      </c>
+      <c r="C149" s="1">
+        <v>14.725</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2086.73</v>
+      </c>
+      <c r="C150" s="1">
+        <v>93.475999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2292.75</v>
+      </c>
+      <c r="C151" s="1">
+        <v>103.282</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="1">
+        <v>4083.51</v>
+      </c>
+      <c r="C152" s="1">
+        <v>183.08500000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="1">
+        <v>4520</v>
+      </c>
+      <c r="C153" s="1">
+        <v>202.54599999999999</v>
       </c>
     </row>
   </sheetData>

--- a/profiling/Confronto prestazioni.xlsx
+++ b/profiling/Confronto prestazioni.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="42">
   <si>
     <t>Versione 1</t>
   </si>
@@ -5326,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="J161" sqref="J161"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
